--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_0_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190036.4717287831</v>
+        <v>405526.5652706135</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631046</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809168</v>
+        <v>393801.3664809167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8920451.080710635</v>
+        <v>8925790.95206528</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>5.043230622647703</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>28.11631013281968</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>24.76484596498756</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>28.11631013281968</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.76484596498756</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>28.11631013281968</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>28.11631013281968</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>65.77854414326434</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.9082206543449</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>292.9082206543449</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>292.9082206543449</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>139.2884328616161</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>104.7107065312506</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -1032,16 +1032,16 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>107.9557083517554</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>33.30824845179957</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>82.48733192351361</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,10 +1117,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>81.78264969770396</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>159.1758579220355</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1306,10 +1306,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>101.6211253318137</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>100.4755919479058</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>115.20542066578</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>23.3374193067185</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.4695588024724</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>120.8638581469427</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686415</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
-        <v>9.363822405891055</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>108.8435335112074</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686437</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>28.1278452262941</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>61.56575106203301</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>179.4966503176937</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>115.1571444457448</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686376</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439293</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>101.9929615813393</v>
+        <v>96.44420510686452</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2953,19 +2953,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686437</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,7 +3007,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>132.4910469690655</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3016,7 +3016,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>178.1668213893228</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>151.5861175088748</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105456</v>
+        <v>160.045668847563</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360706</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>88.67339494150461</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705896</v>
+        <v>36.47073954407641</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334169</v>
+        <v>158.3362093704343</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607368</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>258.8679797492875</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454118</v>
+        <v>268.7968650824292</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.00639215359</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530307</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545158</v>
+        <v>213.9818529915332</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T35" t="n">
-        <v>183.0417138731736</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U35" t="n">
         <v>220.0967589369122</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C37" t="n">
-        <v>134.5782361172335</v>
+        <v>134.578236117234</v>
       </c>
       <c r="D37" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F37" t="n">
-        <v>134.4685551105456</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705896</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S37" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T37" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U37" t="n">
         <v>241.7080026420591</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W37" t="n">
         <v>236.4292784165725</v>
       </c>
       <c r="X37" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T38" t="n">
-        <v>183.0417138731736</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U38" t="n">
         <v>220.0967589369122</v>
@@ -3569,7 +3569,7 @@
         <v>371.9281974712906</v>
       </c>
       <c r="Y38" t="n">
-        <v>365.6092959720189</v>
+        <v>365.6092959720187</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D40" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F40" t="n">
-        <v>134.4685551105456</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H40" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705896</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S40" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T40" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U40" t="n">
         <v>241.7080026420591</v>
       </c>
       <c r="V40" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W40" t="n">
         <v>236.4292784165725</v>
       </c>
       <c r="X40" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3803,7 +3803,7 @@
         <v>356.7528348300169</v>
       </c>
       <c r="X41" t="n">
-        <v>371.9281974712906</v>
+        <v>371.9281974712904</v>
       </c>
       <c r="Y41" t="n">
         <v>365.6092959720189</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C43" t="n">
         <v>134.5782361172335</v>
@@ -3904,7 +3904,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F43" t="n">
         <v>134.4685551105455</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C46" t="n">
         <v>134.5782361172335</v>
@@ -4141,7 +4141,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F46" t="n">
         <v>134.4685551105455</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>1237.429121174962</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>1214.568795228666</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>1195.31657845407</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>769.3396386019277</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>344.2154567913279</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>339.1212844452191</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925398</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925398</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925398</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>75.04568420621194</v>
       </c>
       <c r="L2" t="n">
-        <v>30.08445184211706</v>
+        <v>585.55039495698</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>1096.055105707748</v>
       </c>
       <c r="N2" t="n">
-        <v>84.63009349978725</v>
+        <v>1096.055105707748</v>
       </c>
       <c r="O2" t="n">
-        <v>112.4652405312787</v>
+        <v>1096.055105707748</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1606.559816458516</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1666.253946263046</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1254.533947430793</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>1253.237081426088</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>608.3763969507092</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66461400032987</v>
+        <v>490.870493468214</v>
       </c>
       <c r="D3" t="n">
-        <v>55.66461400032987</v>
+        <v>387.030534983499</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6496180761</v>
+        <v>282.3286012564362</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393404</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.62899915694439</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925398</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>48.69954888116582</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>320.3970381607569</v>
       </c>
       <c r="K3" t="n">
-        <v>37.5310948040289</v>
+        <v>830.9017489115249</v>
       </c>
       <c r="L3" t="n">
-        <v>56.79494646829576</v>
+        <v>1341.406459662293</v>
       </c>
       <c r="M3" t="n">
-        <v>56.79494646829576</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="N3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="O3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061018</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>1236.995018417599</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>876.9962950174796</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>737.303406370772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>484.8558115255016</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>312.8832484044176</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>312.8832484044176</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>312.8832484044176</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.021474178978</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.021474178978</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.021474178978</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925398</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>98.744234143412</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>325.2718353492492</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>647.9406495147484</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>1039.126444484999</v>
       </c>
       <c r="N4" t="n">
-        <v>57.91959887360855</v>
+        <v>1416.617955361035</v>
       </c>
       <c r="O4" t="n">
-        <v>57.91959887360855</v>
+        <v>1772.046084040798</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962699</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649872</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649872</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>1772.267334875772</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1492.082886376076</v>
       </c>
       <c r="V4" t="n">
-        <v>55.66461400032987</v>
+        <v>1210.371418984105</v>
       </c>
       <c r="W4" t="n">
-        <v>55.66461400032987</v>
+        <v>1143.92844510202</v>
       </c>
       <c r="X4" t="n">
-        <v>55.66461400032987</v>
+        <v>901.3645485478253</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.26430073485544</v>
+        <v>675.0217802375673</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>656.6538477085157</v>
+        <v>1517.344551458719</v>
       </c>
       <c r="C5" t="n">
-        <v>360.7869581586723</v>
+        <v>1090.443821472019</v>
       </c>
       <c r="D5" t="n">
-        <v>341.5347413840767</v>
+        <v>667.1512006570197</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5982055723383</v>
+        <v>645.2146648452813</v>
       </c>
       <c r="F5" t="n">
-        <v>23.73131602249491</v>
+        <v>220.0904830346815</v>
       </c>
       <c r="G5" t="n">
-        <v>23.43265765234759</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>23.43265765234759</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>23.43265765234759</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>184.1391323920727</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>474.1182708398742</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>764.0974092876756</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.076547735477</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1067.26558849052</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>961.4971980549134</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>961.4971980549134</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>961.4971980549134</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>961.4971980549134</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.8176032630647</v>
+        <v>1534.449377714551</v>
       </c>
       <c r="Y5" t="n">
-        <v>952.5207372583591</v>
+        <v>1533.152511709845</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443.5342251290166</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>326.0283216465214</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>222.1883631618064</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>117.4864294347436</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>117.4864294347436</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>23.43265765234759</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>295.1301469319387</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>295.1301469319387</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>301.6954672739753</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>591.6746057217767</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N6" t="n">
-        <v>881.6537441695782</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O6" t="n">
-        <v>1171.63288261738</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
-        <v>1171.63288261738</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
-        <v>1171.63288261738</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.63288261738</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1171.63288261738</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1029.752946915058</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>844.9847508346946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>844.9847508346946</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>735.9385807824165</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>572.4612345490793</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>572.4612345490793</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.613426620578</v>
+        <v>729.0902991667042</v>
       </c>
       <c r="C7" t="n">
-        <v>189.640863499494</v>
+        <v>557.1177360456202</v>
       </c>
       <c r="D7" t="n">
-        <v>189.640863499494</v>
+        <v>393.8009631723909</v>
       </c>
       <c r="E7" t="n">
-        <v>23.43265765234759</v>
+        <v>393.8009631723909</v>
       </c>
       <c r="F7" t="n">
-        <v>23.43265765234759</v>
+        <v>221.9391889469513</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43265765234759</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43265765234759</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>23.43265765234759</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6953370332133</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>464.6744754810147</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>754.6536139288162</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1044.632752376618</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.632752376618</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1001.497835136514</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1001.497835136514</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>918.1772978400361</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>636.4658304480649</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W7" t="n">
-        <v>361.613426620578</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X7" t="n">
-        <v>361.613426620578</v>
+        <v>1145.599036189028</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.613426620578</v>
+        <v>919.2562678787699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1012.734393912848</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>989.8740679665525</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>970.6218511919568</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6449113398144</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5207295292146</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1389.514143537154</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M9" t="n">
-        <v>1686.413844810522</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.2389422391807</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>541.2389422391807</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>541.2389422391807</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0307363920342</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.940779286676</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>870.229311894705</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>870.229311894705</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>767.5817105494386</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.2389422391807</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1987.880713913063</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>106.0665896180274</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>106.0665896180274</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>106.0665896180274</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1110.352691037086</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2086.603749523787</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>2931.748399674599</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>3640.027678832526</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>4096.11315833671</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>4213.669493218612</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4027.640793519774</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3804.182755372715</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3481.590211755493</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3120.095733312369</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2743.272605736645</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2372.832206948064</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1790.701256757121</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>908.1854269272845</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C13" t="n">
-        <v>771.1097350627294</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D13" t="n">
-        <v>642.6898334460288</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E13" t="n">
-        <v>511.3784988554112</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>374.4135958865005</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.967141607054</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2538.305805425692</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2403.067629201356</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2194.625152683785</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1949.337575440617</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.522979305175</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1462.567446734217</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X13" t="n">
-        <v>1254.900421436551</v>
+        <v>1299.454387197274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1063.454524382822</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2015.422568456723</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1623.41870972655</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.022960168079</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>843.9428915724658</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>453.7155810183948</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>84.27338986437223</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>106.0665896180274</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K14" t="n">
-        <v>106.0665896180274</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L14" t="n">
-        <v>106.0665896180274</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1110.352691037086</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>2086.603749523787</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2931.748399674599</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3640.027678832526</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>4096.11315833671</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>4213.669493218612</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4027.640793519774</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3804.182755372715</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3481.590211755493</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3120.095733312369</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2743.272605736645</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2400.374061491724</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>1790.701256757121</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>908.1854269272847</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283525</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116519</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>526.3694855210342</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2403.067629201356</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2194.625152683785</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.337575440617</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.522979305175</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1462.567446734217</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1254.900421436551</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1063.454524382822</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.410291042732</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>1526.406432312561</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.01068275409</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>746.9306141584759</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>356.7033036044049</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>84.27338986437223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27338986437223</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>223.6229244999297</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1227.909025918988</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2204.160084405689</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3049.304734556501</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>3757.584013714429</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.361784077733</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>91.72003282628407</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>363.4175221058752</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>953.9024486742147</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>1790.701256757121</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M18" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709861</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>786.1007217283524</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>657.6808201116519</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>526.3694855210342</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314148</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443596</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666405</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425691</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369393</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677918</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380252</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326523</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1918.410291042732</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>1526.406432312561</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3096.296305695102</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3250.968508185897</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4096.11315833671</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4096.11315833671</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q20" t="n">
-        <v>4096.11315833671</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>2673.802182866315</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2303.361784077733</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>1790.701256757121</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2598.540101385828</v>
+        <v>608.0932463474628</v>
       </c>
       <c r="C22" t="n">
-        <v>2461.464409521273</v>
+        <v>436.1206832263791</v>
       </c>
       <c r="D22" t="n">
-        <v>2333.044507904572</v>
+        <v>373.9330558909922</v>
       </c>
       <c r="E22" t="n">
-        <v>2201.733173313954</v>
+        <v>373.9330558909922</v>
       </c>
       <c r="F22" t="n">
-        <v>2064.768270345044</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>1933.408171895805</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>1824.508774660488</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>1759.637077657293</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>1851.330829399974</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>2112.060854124335</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>2500.95259893728</v>
+        <v>741.0109641302444</v>
       </c>
       <c r="M22" t="n">
-        <v>2926.340817426055</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>3338.034751820614</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>3727.665304018901</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4052.466939459326</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>4213.669493218612</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R22" t="n">
-        <v>4201.527751162314</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="S22" t="n">
-        <v>4066.289574937978</v>
+        <v>2065.542080025264</v>
       </c>
       <c r="T22" t="n">
-        <v>3884.979827142327</v>
+        <v>1822.202732251164</v>
       </c>
       <c r="U22" t="n">
-        <v>3639.69224989916</v>
+        <v>1542.018283751468</v>
       </c>
       <c r="V22" t="n">
-        <v>3392.877653763718</v>
+        <v>1542.018283751468</v>
       </c>
       <c r="W22" t="n">
-        <v>3152.92212119276</v>
+        <v>1267.165879923981</v>
       </c>
       <c r="X22" t="n">
-        <v>2945.255095895094</v>
+        <v>1024.601983369786</v>
       </c>
       <c r="Y22" t="n">
-        <v>2753.809198841364</v>
+        <v>798.2592150595285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385135</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844909</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>825.693028076871</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1755.318075696148</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2759.604177115206</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3735.855235601907</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4580.999885752719</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4580.999885752719</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q23" t="n">
-        <v>4580.999885752719</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696622</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>370.7641299565573</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>961.2490565248969</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>1798.047864607803</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>915.5320347779667</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>778.4563429134115</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="D25" t="n">
-        <v>650.036441296711</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E25" t="n">
-        <v>533.7160933717164</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028056</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535666</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577361</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302444</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2410.414237052038</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T25" t="n">
-        <v>2201.971760534466</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.684183291299</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.869587155857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1469.914054584899</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X25" t="n">
-        <v>1262.247029287233</v>
+        <v>862.6457877746759</v>
       </c>
       <c r="Y25" t="n">
-        <v>1070.801132233504</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,19 +6212,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
@@ -6242,31 +6242,31 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164565</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209198</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372837</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547884</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700735</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430107</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>1801.283937336665</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
         <v>1910.990343986338</v>
@@ -6345,10 +6345,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>938.046102504054</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573464</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.5322462326803</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
         <v>386.3216428358237</v>
@@ -6409,25 +6409,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2179.692547302453</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1936.353199528353</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1656.168751028657</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1374.457283636686</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1099.604879809199</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>857.0409832550039</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>630.698214944746</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523517</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058286</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058286</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058286</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548328</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156357</v>
+        <v>1455.227556691503</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1180.375152864016</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746753</v>
+        <v>937.8112563098208</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644174</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>453.8982909248284</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1383.523338544105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2387.809439963164</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3364.060498449865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3856.462326238716</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>362.9923213875239</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>953.4772479558635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>1790.27605603877</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619906</v>
+        <v>506.6513813835482</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223607</v>
+        <v>506.6513813835482</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305856</v>
+        <v>353.5340909705433</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648933</v>
+        <v>353.5340909705433</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>191.8717992053282</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>191.8717992053282</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862028</v>
+        <v>191.8717992053282</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>169.7905543892525</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>406.3146683543557</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090881</v>
+        <v>771.0005024080423</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.182810137559</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.670833772861</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.09547521189</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893057</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893085</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2325.848712040482</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2165.913147019842</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>1932.773281705966</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1671.290473878403</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1399.778488946656</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1135.125567579393</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>902.7611534854229</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>686.6178676353893</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815411</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G35" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793279</v>
       </c>
       <c r="I35" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
-        <v>361.8982190740699</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>1077.406527049569</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>2007.031574668845</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>3011.317676087904</v>
+        <v>2743.34589675913</v>
       </c>
       <c r="N35" t="n">
-        <v>3011.317676087904</v>
+        <v>3719.596955245831</v>
       </c>
       <c r="O35" t="n">
-        <v>3856.462326238716</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="P35" t="n">
         <v>4564.741605396644</v>
@@ -6965,16 +6965,16 @@
         <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
         <v>3031.702772793898</v>
@@ -7011,16 +7011,16 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J36" t="n">
-        <v>362.9923213875239</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K36" t="n">
-        <v>953.4772479558635</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L36" t="n">
-        <v>1790.27605603877</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M36" t="n">
         <v>1899.982462688443</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619913</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223611</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.011864230586</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648936</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209083</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965945</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862026</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910046</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557546</v>
+        <v>445.949472255755</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090886</v>
+        <v>835.956648909089</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238253</v>
@@ -7108,13 +7108,13 @@
         <v>1675.269665473202</v>
       </c>
       <c r="O37" t="n">
-        <v>2066.015649511878</v>
+        <v>2066.015649511879</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R37" t="n">
         <v>2543.247039960995</v>
@@ -7123,7 +7123,7 @@
         <v>2409.146943361584</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468939</v>
       </c>
       <c r="U37" t="n">
         <v>1957.693048850697</v>
@@ -7135,10 +7135,10 @@
         <v>1473.199079394147</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721407</v>
       </c>
       <c r="Y37" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292603</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D38" t="n">
         <v>1500.463591181375</v>
@@ -7160,7 +7160,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815417</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7172,22 +7172,22 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
-        <v>91.29483210793288</v>
+        <v>93.92643974529653</v>
       </c>
       <c r="K38" t="n">
-        <v>806.8031400834319</v>
+        <v>809.4347477207956</v>
       </c>
       <c r="L38" t="n">
-        <v>1736.428187702709</v>
+        <v>1739.059795340072</v>
       </c>
       <c r="M38" t="n">
-        <v>2740.714289121767</v>
+        <v>2743.34589675913</v>
       </c>
       <c r="N38" t="n">
-        <v>3716.965347608468</v>
+        <v>3719.596955245831</v>
       </c>
       <c r="O38" t="n">
-        <v>3856.462326238716</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="P38" t="n">
         <v>4564.741605396644</v>
@@ -7202,22 +7202,22 @@
         <v>4496.409262151238</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J39" t="n">
-        <v>362.9923213875239</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>953.4772479558635</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L39" t="n">
-        <v>1790.27605603877</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M39" t="n">
         <v>1899.982462688443</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619906</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
@@ -7333,16 +7333,16 @@
         <v>184.1040156910042</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557546</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090886</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O40" t="n">
         <v>2066.015649511878</v>
@@ -7366,13 +7366,13 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y40" t="n">
         <v>1076.362316292602</v>
@@ -7388,7 +7388,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7421,13 +7421,13 @@
         <v>3103.317747938662</v>
       </c>
       <c r="N41" t="n">
-        <v>3738.905991356814</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.905991356814</v>
+        <v>3948.462398089474</v>
       </c>
       <c r="P41" t="n">
-        <v>4447.185270514741</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q41" t="n">
         <v>4447.185270514741</v>
@@ -7451,7 +7451,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y41" t="n">
         <v>2662.400453630242</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619904</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E43" t="n">
         <v>528.8386092648932</v>
@@ -7567,28 +7567,28 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
         <v>2543.247039960994</v>
@@ -7597,7 +7597,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850696</v>
@@ -7606,10 +7606,10 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D44" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181376</v>
       </c>
       <c r="E44" t="n">
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815418</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
@@ -7646,22 +7646,22 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
-        <v>361.8982190740699</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>1077.406527049569</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>2007.031574668845</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>3011.317676087904</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="N44" t="n">
-        <v>3011.317676087904</v>
+        <v>3719.596955245831</v>
       </c>
       <c r="O44" t="n">
-        <v>3856.462326238716</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="P44" t="n">
         <v>4564.741605396644</v>
@@ -7676,22 +7676,22 @@
         <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077326</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555193</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X44" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
@@ -7804,10 +7804,10 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910042</v>
+        <v>184.104015691004</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557544</v>
       </c>
       <c r="L46" t="n">
         <v>835.9566489090884</v>
@@ -7816,7 +7816,7 @@
         <v>1262.460299238252</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,7 +7828,7 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
         <v>2409.146943361583</v>
@@ -7843,7 +7843,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X46" t="n">
         <v>1266.670133721406</v>
@@ -7979,25 +7979,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>69.89872027658507</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>553.9733664232976</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>553.0925868901065</v>
       </c>
       <c r="N2" t="n">
-        <v>64.25992043664672</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>553.2366858009061</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8055,22 +8055,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>538.0605578240081</v>
       </c>
       <c r="L3" t="n">
-        <v>41.97352273874154</v>
+        <v>538.1764107049044</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>536.767565196642</v>
       </c>
       <c r="N3" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>347.8468550123671</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N5" t="n">
-        <v>199.6093952988149</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>330.299180010369</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>330.4835824645762</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.032895258943</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,28 +8292,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>29.14672342335745</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>316.0050011666729</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>314.2512488678866</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>316.0801103765671</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>174.7093451288989</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>315.4836605458307</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299453</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.4074081527694</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>114.4784903637085</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N9" t="n">
-        <v>182.1367435982028</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8626,10 +8626,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.43329257008666</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8705,10 +8705,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8775,7 +8775,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>126.389471106026</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.43329257008666</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8948,7 +8948,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>126.389471106026</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>179.0691481251052</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9179,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9249,7 +9249,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>43.54168314167935</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9264,7 +9264,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>193.5141708049464</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,10 +9419,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>126.389471106026</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>410.9863902341236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9656,10 +9656,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
@@ -9723,7 +9723,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>126.389471106026</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9890,7 +9890,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602115987</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9960,7 +9960,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>133.9113326837148</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -10349,7 +10349,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,10 +10361,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>534.7665429811263</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>302.756713996836</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,16 +10592,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>688.2537378888522</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10671,7 +10671,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>133.9113326837148</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>32.07814901827709</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10835,10 +10835,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>178.2969983764768</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10908,7 +10908,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>133.9113326837148</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -11069,16 +11069,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>679.2879495194474</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>80.64343546789148</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>302.756713996836</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11306,13 +11306,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>659.7838726396674</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.6082281949635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14.84107679896665</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>200.7419213204369</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.26643599822268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.84107679896692</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919234</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>356.3839468365913</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>26.86140143470225</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.3839468365921</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>100.117854082464</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.8614014347018</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>14.84107679896671</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.98949189919273</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>66.44073542471715</v>
+        <v>71.98949189919198</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919212</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>146.4033057489859</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>160.155349854251</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530528</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.496912373088</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.260818171305</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>8.417136629789077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-3.714806368081531e-13</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>747130.2734815259</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>747130.2734815257</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>747130.2734815259</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>747130.2734815257</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>785427.2924085859</v>
+        <v>758741.0442355537</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>786297.6018150701</v>
+        <v>766540.7669719901</v>
       </c>
     </row>
     <row r="13">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232977.0672044653</v>
+        <v>232977.0672044652</v>
       </c>
       <c r="C2" t="n">
-        <v>232977.0672044653</v>
+        <v>232977.0672044652</v>
       </c>
       <c r="D2" t="n">
         <v>232977.0672044652</v>
       </c>
       <c r="E2" t="n">
-        <v>221371.932883415</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="F2" t="n">
-        <v>221371.932883415</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="G2" t="n">
-        <v>221371.932883415</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="H2" t="n">
-        <v>221371.932883415</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="I2" t="n">
-        <v>232719.197750692</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="J2" t="n">
         <v>224812.1612549789</v>
@@ -26341,16 +26341,16 @@
         <v>224812.1612549789</v>
       </c>
       <c r="L2" t="n">
-        <v>232977.067204465</v>
+        <v>227123.1902139228</v>
       </c>
       <c r="M2" t="n">
+        <v>232977.0672044654</v>
+      </c>
+      <c r="N2" t="n">
         <v>232977.0672044651</v>
       </c>
-      <c r="N2" t="n">
-        <v>232977.067204465</v>
-      </c>
       <c r="O2" t="n">
-        <v>232977.067204465</v>
+        <v>232977.0672044652</v>
       </c>
       <c r="P2" t="n">
         <v>232977.0672044651</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797269</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943977</v>
+        <v>13105.84347019924</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596184</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826556</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085277</v>
+        <v>134919.6914542161</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710407</v>
+        <v>10440.51617310225</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370021</v>
+        <v>8077.990108497736</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819144</v>
+        <v>166235.4618077718</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300956.2004134118</v>
+        <v>148791.8805656729</v>
       </c>
       <c r="C4" t="n">
-        <v>215553.4885557879</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>35605.7476017751</v>
+        <v>800.0602599433156</v>
       </c>
       <c r="F4" t="n">
-        <v>35605.7476017751</v>
+        <v>800.0602599433247</v>
       </c>
       <c r="G4" t="n">
-        <v>35605.7476017751</v>
+        <v>800.0602599433234</v>
       </c>
       <c r="H4" t="n">
-        <v>35605.7476017751</v>
+        <v>800.0602599433294</v>
       </c>
       <c r="I4" t="n">
-        <v>35649.16382792783</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599434078</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>36734.633506403</v>
+        <v>4122.636905683513</v>
       </c>
       <c r="M4" t="n">
-        <v>36734.633506403</v>
+        <v>36734.63350640303</v>
       </c>
       <c r="N4" t="n">
-        <v>36734.633506403</v>
+        <v>36734.63350640304</v>
       </c>
       <c r="O4" t="n">
         <v>36734.63350640301</v>
       </c>
       <c r="P4" t="n">
-        <v>36734.63350640301</v>
+        <v>36734.633506403</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863302</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578417</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646881</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482542</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112738.6270656628</v>
+        <v>-153604.5917395676</v>
       </c>
       <c r="C6" t="n">
-        <v>-119559.3453465465</v>
+        <v>12917.22336454492</v>
       </c>
       <c r="D6" t="n">
-        <v>-42252.48102178233</v>
+        <v>26023.0668347441</v>
       </c>
       <c r="E6" t="n">
-        <v>-85587.71209386989</v>
+        <v>-69528.34841221894</v>
       </c>
       <c r="F6" t="n">
-        <v>118814.0013657485</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="G6" t="n">
-        <v>118814.0013657485</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="H6" t="n">
-        <v>118814.0013657485</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="I6" t="n">
-        <v>100114.2117120888</v>
+        <v>146211.0081444216</v>
       </c>
       <c r="J6" t="n">
-        <v>103967.2191557531</v>
+        <v>11291.31669020547</v>
       </c>
       <c r="K6" t="n">
-        <v>78113.07437950179</v>
+        <v>135770.4919713193</v>
       </c>
       <c r="L6" t="n">
-        <v>87500.76912953636</v>
+        <v>136287.0285920818</v>
       </c>
       <c r="M6" t="n">
-        <v>-23673.88774867775</v>
+        <v>-42376.22857453485</v>
       </c>
       <c r="N6" t="n">
-        <v>123859.2332332365</v>
+        <v>123859.2332332367</v>
       </c>
       <c r="O6" t="n">
-        <v>123859.2332332365</v>
+        <v>123859.2332332368</v>
       </c>
       <c r="P6" t="n">
         <v>123859.2332332367</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543449</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701748</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215252</v>
+        <v>40.56648912491937</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059893</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352674</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674962</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215259</v>
+        <v>40.56648912491937</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229337</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>584.9575882335668</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215252</v>
+        <v>40.56648912491937</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059893</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.2524411637982</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27439,10 +27439,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78.89006842480458</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5930618811052</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4994630599574</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27546,7 +27546,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -27555,7 +27555,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>249.2662938818791</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>250.7780425852317</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>206.3253356459477</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.7416599942698</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>129.7235020324879</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>127.9647193381488</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>261.0072389248297</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>114.0056087145626</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>86.60045504335959</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>131.2861515569106</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>194.8952720911851</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>318.5130220887419</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>233.2515782806211</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>138.5171322568392</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>-4.11532691860978e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263962</v>
+        <v>10.09748763562217</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263987</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263969</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263962</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263976</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263907</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>34.13411948177572</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="N2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="L3" t="n">
-        <v>19.45843602451198</v>
+        <v>515.6613239906748</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>513.670784684314</v>
       </c>
       <c r="N3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>325.9280951166659</v>
       </c>
       <c r="M4" t="n">
-        <v>28.11631013281968</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N5" t="n">
-        <v>162.3297724643688</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>292.9082206543449</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>292.9082206543449</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9082206543449</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>6.631636709127893</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>292.9082206543449</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>292.9082206543449</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>292.9082206543449</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>152.7905852331976</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>292.9082206543449</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543449</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.9082206543449</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N9" t="n">
-        <v>160.7937153846612</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35346,10 +35346,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.01333308450013</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35425,10 +35425,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35495,7 +35495,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>103.292690593698</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>22.01333308450013</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35668,7 +35668,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>103.292690593698</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>140.7571056924823</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35899,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
@@ -35969,7 +35969,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>20.44490262935137</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>156.2345479705004</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,10 +36139,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>103.292690593698</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>375.2217894393143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36376,10 +36376,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
@@ -36443,7 +36443,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>103.292690593698</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013674</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36680,7 +36680,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>110.8145521713869</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,10 +37081,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>497.3755836251023</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391034</v>
+        <v>68.1695363468929</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293971</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471583</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722391</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760623</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333626</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324918</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747757</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>273.3367545112495</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,16 +37312,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>650.8224749894205</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37391,7 +37391,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>110.8145521713869</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391034</v>
+        <v>93.74665008391038</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.658189532690563</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37555,10 +37555,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>140.9060390204527</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37628,7 +37628,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>110.8145521713869</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391041</v>
+        <v>93.74665008391038</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37789,16 +37789,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>642.0083266850013</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>43.06807365766018</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -37950,7 +37950,7 @@
         <v>416.9791578130798</v>
       </c>
       <c r="O43" t="n">
-        <v>394.6929131703795</v>
+        <v>394.6929131703801</v>
       </c>
       <c r="P43" t="n">
         <v>329.2091588695093</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>273.3367545112495</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38026,13 +38026,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>622.5042498052213</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
